--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/School/Fall 2016 classes &amp; TA/15-688 (Practical data science)/Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/School/Fall 2016 classes &amp; TA/15-688 (Practical data science)/Visualization-tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="460" windowWidth="22220" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,194 +439,210 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>6250</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>8750</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12500</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>17500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>22500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>32500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>37500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>42500</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>47500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>52500</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>57500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>62500</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>67500</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>72500</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77500</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82500</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92500</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97500</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110000</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>130000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Associate's</t>
   </si>
   <si>
-    <t>Bachlor's</t>
-  </si>
-  <si>
     <t>Master's</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   <si>
     <t>Hot-Dry/
 Mixed-Dry</t>
+  </si>
+  <si>
+    <t>Bachelor's</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>200000</v>
+        <v>270000</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
